--- a/Documents/Estimations/Coût.xlsx
+++ b/Documents/Estimations/Coût.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Documents\GitHub\projet-5-credits\Gestion\Estimations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Documents\GitHub\projet-5-credits\Documents\Estimations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E50441-05E2-45BB-93D8-CE0160A241A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9829BE5-01EA-4FDD-AC77-5E8FC17BB7EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29820" yWindow="645" windowWidth="21990" windowHeight="13800" xr2:uid="{4E4A5E19-7556-4C86-A701-DB9D7891D5F7}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{4E4A5E19-7556-4C86-A701-DB9D7891D5F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
   <si>
     <t xml:space="preserve">Achat de materiel </t>
   </si>
@@ -48,27 +47,12 @@
     <t>Prix</t>
   </si>
   <si>
-    <t>Platforme robotique</t>
-  </si>
-  <si>
-    <t>Camera</t>
-  </si>
-  <si>
     <t>Systeme de manutention de la balle</t>
   </si>
   <si>
-    <t>Autre capteur</t>
-  </si>
-  <si>
-    <t>Microcontrolleur ESP32</t>
-  </si>
-  <si>
     <t>Server local et ses composant</t>
   </si>
   <si>
-    <t>Manette de controlle</t>
-  </si>
-  <si>
     <t>Terrain</t>
   </si>
   <si>
@@ -99,26 +83,137 @@
     <t>Grand total</t>
   </si>
   <si>
-    <t>Logiciel d'inteligence artificiel</t>
-  </si>
-  <si>
-    <t>Logiciel  de simulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logiciel instlaler sur le serveur </t>
-  </si>
-  <si>
     <t>Sous-total ($)</t>
   </si>
   <si>
     <t>Sous-total des heures ($)</t>
+  </si>
+  <si>
+    <t>concepte</t>
+  </si>
+  <si>
+    <t>préliminaire</t>
+  </si>
+  <si>
+    <t>Robots</t>
+  </si>
+  <si>
+    <t>Sout-total Robots</t>
+  </si>
+  <si>
+    <t>Sout-total Serveur et composantes</t>
+  </si>
+  <si>
+    <t>Sout-total Terrain</t>
+  </si>
+  <si>
+    <t>Open source M.L. API</t>
+  </si>
+  <si>
+    <t>Simulateur de robotique</t>
+  </si>
+  <si>
+    <t>Sous-total ($) Matériel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TP-Link AC1900 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Câble connecteur RJ45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Balles de foosball pack 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    tapis de Yoga noir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Tiges de support pour caméra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Bois de contour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ensemble d'éclairage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Vis et écrous m2.5 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    servomoteurs MG90S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    PLA 1.75 mm noir 1 Kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ensemble breadboards avec cables </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Piles Lipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Microcontrolleur ESP32-S2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Microcontrolleur ESP32-WROOM pack 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Feather NRF52 MCU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Autres capteurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Impression des pièces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    autre capteur vision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Platforme robotique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    routeur/commutateur</t>
+  </si>
+  <si>
+    <t>Google Colab premium</t>
+  </si>
+  <si>
+    <t>Logiciels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Camera ELP 2.1 mm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    PCB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SSD samsung evo 970 250 GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Pont en H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    L298N motor Drive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Nvidia Jetson Xavier nx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Manettes de controle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Manette de controle logitech F310</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,8 +221,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,8 +255,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -161,47 +276,197 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -223,7 +488,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -519,377 +784,1081 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD447D9-64F0-4BF2-AD12-BEA79E168782}">
-  <dimension ref="B6:F29"/>
+  <dimension ref="B5:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="F6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="26">
         <v>4</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D8" s="27">
+        <v>40</v>
+      </c>
+      <c r="E8" s="28">
+        <f>D8*C8</f>
+        <v>160</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="26">
         <v>4</v>
       </c>
-      <c r="D7" s="9">
-        <v>120</v>
-      </c>
-      <c r="E7" s="9">
-        <f>D7*C7</f>
-        <v>480</v>
-      </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="H8" s="27">
+        <v>27</v>
+      </c>
+      <c r="I8" s="28">
+        <f>G8*H8</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="26">
+        <v>1</v>
+      </c>
+      <c r="D9" s="27">
+        <v>150</v>
+      </c>
+      <c r="E9" s="28">
+        <f>D9*C9</f>
+        <v>150</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="26">
+        <v>1</v>
+      </c>
+      <c r="H9" s="27">
+        <v>68</v>
+      </c>
+      <c r="I9" s="28">
+        <f t="shared" ref="I9:I35" si="0">G9*H9</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="29"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="26">
+        <v>10</v>
+      </c>
+      <c r="H10" s="27">
+        <v>10</v>
+      </c>
+      <c r="I10" s="28">
+        <f>G10*H10</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="26">
+        <v>4</v>
+      </c>
+      <c r="D11" s="27">
         <v>5</v>
       </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="E11" s="28">
+        <v>20</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="26">
+        <v>5</v>
+      </c>
+      <c r="H11" s="27">
+        <f>I11/G11</f>
+        <v>5.0739999999999998</v>
+      </c>
+      <c r="I11" s="28">
+        <v>25.37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="26">
+        <v>1</v>
+      </c>
+      <c r="D12" s="27">
         <v>100</v>
       </c>
-      <c r="E8" s="9">
-        <f t="shared" ref="E8:E14" si="0">D8*C8</f>
+      <c r="E12" s="28">
+        <f>C12*D12</f>
         <v>100</v>
       </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+      <c r="F12" s="29"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="28"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="26">
+        <v>4</v>
+      </c>
+      <c r="D13" s="27">
+        <v>40</v>
+      </c>
+      <c r="E13" s="28">
+        <f>D13*C13</f>
+        <v>160</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="28"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="29"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="26">
+        <v>1</v>
+      </c>
+      <c r="H14" s="27">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="I14" s="28">
+        <f>G14*H14</f>
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="29"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="26">
+        <v>10</v>
+      </c>
+      <c r="H15" s="27">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="I15" s="28">
+        <f t="shared" si="0"/>
+        <v>46.900000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="26">
+        <v>4</v>
+      </c>
+      <c r="D16" s="27">
+        <v>25</v>
+      </c>
+      <c r="E16" s="28">
+        <f t="shared" ref="E16:E20" si="1">D16*C16</f>
+        <v>100</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="26">
+        <v>1</v>
+      </c>
+      <c r="H16" s="27">
+        <v>35.65</v>
+      </c>
+      <c r="I16" s="28">
+        <f t="shared" si="0"/>
+        <v>35.65</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="29"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="26">
+        <v>1</v>
+      </c>
+      <c r="H17" s="27">
+        <v>17.25</v>
+      </c>
+      <c r="I17" s="28">
+        <f t="shared" si="0"/>
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="26">
+        <v>4</v>
+      </c>
+      <c r="D18" s="27">
+        <v>25</v>
+      </c>
+      <c r="E18" s="28">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="26">
+        <v>4</v>
+      </c>
+      <c r="H18" s="27">
+        <v>25</v>
+      </c>
+      <c r="I18" s="28">
+        <f>H18*G18</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="26">
+        <v>4</v>
+      </c>
+      <c r="D19" s="27">
+        <v>40</v>
+      </c>
+      <c r="E19" s="28">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="28"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="26">
+        <v>4</v>
+      </c>
+      <c r="D20" s="27">
+        <v>10</v>
+      </c>
+      <c r="E20" s="28">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="26">
+        <v>4</v>
+      </c>
+      <c r="H20" s="27">
+        <v>11.75</v>
+      </c>
+      <c r="I20" s="28">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="29"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="26">
+        <v>1</v>
+      </c>
+      <c r="H21" s="27">
+        <v>43.98</v>
+      </c>
+      <c r="I21" s="28">
+        <f t="shared" si="0"/>
+        <v>43.98</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="35"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="26">
+        <v>4</v>
+      </c>
+      <c r="H22" s="27">
+        <v>38.35</v>
+      </c>
+      <c r="I22" s="28">
+        <f t="shared" si="0"/>
+        <v>153.4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34">
+        <f>SUM(E8:E22)</f>
+        <v>990</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="32"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="34">
+        <f>SUM(I8:I22)</f>
+        <v>761.65</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1500</v>
+      </c>
+      <c r="E24" s="24">
+        <f>D24*C24</f>
+        <v>1500</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="22"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="24"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="22">
+        <v>1</v>
+      </c>
+      <c r="H25" s="23">
+        <v>524.9</v>
+      </c>
+      <c r="I25" s="24">
+        <f t="shared" si="0"/>
+        <v>524.9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="22">
+        <v>1</v>
+      </c>
+      <c r="H26" s="23">
+        <v>91.98</v>
+      </c>
+      <c r="I26" s="24">
+        <f t="shared" si="0"/>
+        <v>91.98</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6">
+        <v>100</v>
+      </c>
+      <c r="E27" s="24">
+        <f>C27*D27</f>
+        <v>100</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="22">
+        <v>1</v>
+      </c>
+      <c r="H27" s="23">
+        <v>115</v>
+      </c>
+      <c r="I27" s="24">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="22">
+        <v>1</v>
+      </c>
+      <c r="H28" s="23">
+        <v>10.32</v>
+      </c>
+      <c r="I28" s="24">
+        <f t="shared" si="0"/>
+        <v>10.32</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2</v>
+      </c>
+      <c r="D29" s="6">
+        <v>80</v>
+      </c>
+      <c r="E29" s="7">
+        <f>D29*C29</f>
+        <v>160</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="5">
+        <v>2</v>
+      </c>
+      <c r="H29" s="6">
+        <v>30.11</v>
+      </c>
+      <c r="I29" s="7">
+        <f t="shared" si="0"/>
+        <v>60.22</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="34">
+        <f>SUM(E24:E29)</f>
+        <v>1760</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="32"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="34">
+        <f>SUM(I25:I29)</f>
+        <v>802.42000000000007</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C31" s="26">
+        <v>1</v>
+      </c>
+      <c r="D31" s="27">
+        <v>200</v>
+      </c>
+      <c r="E31" s="28">
+        <f>D31*C31</f>
+        <v>200</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="26"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="28"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="29"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="26">
+        <v>1</v>
+      </c>
+      <c r="H32" s="27">
+        <v>10.6</v>
+      </c>
+      <c r="I32" s="28">
+        <f t="shared" si="0"/>
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="29"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="26">
+        <v>1</v>
+      </c>
+      <c r="H33" s="27">
+        <v>98.9</v>
+      </c>
+      <c r="I33" s="28">
+        <f t="shared" si="0"/>
+        <v>98.9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="26"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="26">
+        <v>10</v>
+      </c>
+      <c r="H34" s="27">
+        <v>10</v>
+      </c>
+      <c r="I34" s="28">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="29"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="26">
+        <v>1</v>
+      </c>
+      <c r="H35" s="27">
+        <v>100</v>
+      </c>
+      <c r="I35" s="28">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="29"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="26">
         <v>4</v>
       </c>
-      <c r="D9" s="9">
-        <v>40</v>
-      </c>
-      <c r="E9" s="9">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4</v>
-      </c>
-      <c r="D10" s="9">
-        <v>40</v>
-      </c>
-      <c r="E10" s="9">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="H36" s="27">
+        <v>15</v>
+      </c>
+      <c r="I36" s="28">
+        <f>G36*H36</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="32"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="34">
+        <f>E31</f>
+        <v>200</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="32"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="34">
+        <f>SUM(I32:I36)</f>
+        <v>369.5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11">
+        <f>SUM(E23,E30,E37)</f>
+        <v>2950</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="11">
+        <f>SUM(I23,I30,I37)</f>
+        <v>1933.5700000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="1">
-        <v>4</v>
-      </c>
-      <c r="D11" s="9">
+      <c r="C39" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="5">
+        <v>1</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0</v>
+      </c>
+      <c r="E40" s="7">
+        <f>-D40*C40</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" s="5">
+        <v>1</v>
+      </c>
+      <c r="H40" s="6">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <f>G40*H40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="5">
+        <v>1</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0</v>
+      </c>
+      <c r="E41" s="7">
+        <f>-D41*C41</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41" s="5">
+        <v>2</v>
+      </c>
+      <c r="H41" s="6">
+        <v>14</v>
+      </c>
+      <c r="I41" s="7">
+        <f>G41*H41</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="5">
+        <v>1</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0</v>
+      </c>
+      <c r="E42" s="7">
+        <f>-D42*C42</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="5">
+        <v>1</v>
+      </c>
+      <c r="H42" s="6">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <f>G42*H42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11">
+        <v>0</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="9"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="11">
+        <f>SUM(I40:I42)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="9">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="9">
-        <v>1500</v>
-      </c>
-      <c r="E12" s="9">
-        <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
+      <c r="C45" s="26">
+        <v>150</v>
+      </c>
+      <c r="D45" s="27">
+        <v>60</v>
+      </c>
+      <c r="E45" s="28">
+        <f>D45*C45</f>
+        <v>9000</v>
+      </c>
+      <c r="F45" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" s="9">
-        <v>80</v>
-      </c>
-      <c r="E13" s="9">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
+      <c r="G45" s="26">
+        <v>150</v>
+      </c>
+      <c r="H45" s="27">
+        <v>60</v>
+      </c>
+      <c r="I45" s="28">
+        <f>H45*G45</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="9">
-        <v>150</v>
-      </c>
-      <c r="E14" s="9">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+      <c r="C46" s="26">
+        <v>100</v>
+      </c>
+      <c r="D46" s="27">
+        <v>60</v>
+      </c>
+      <c r="E46" s="28">
+        <f>D46*C46</f>
+        <v>6000</v>
+      </c>
+      <c r="F46" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="26">
+        <v>100</v>
+      </c>
+      <c r="H46" s="27">
+        <v>60</v>
+      </c>
+      <c r="I46" s="28">
+        <f t="shared" ref="I46:I49" si="2">H46*G46</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10">
-        <f>SUM(E7:E14)</f>
-        <v>2750</v>
-      </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0</v>
-      </c>
-      <c r="E18" s="9">
-        <f>-D18*C18</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0</v>
-      </c>
-      <c r="E19" s="9">
-        <f t="shared" ref="E19:E20" si="1">-D19*C19</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0</v>
-      </c>
-      <c r="E20" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="1">
-        <v>150</v>
-      </c>
-      <c r="D23" s="9">
+      <c r="C47" s="26">
+        <v>370</v>
+      </c>
+      <c r="D47" s="27">
         <v>60</v>
       </c>
-      <c r="E23" s="9">
-        <f>D23*C23</f>
-        <v>9000</v>
-      </c>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="1">
-        <v>100</v>
-      </c>
-      <c r="D24" s="9">
+      <c r="E47" s="28">
+        <f>D47*C47</f>
+        <v>22200</v>
+      </c>
+      <c r="F47" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="26">
+        <v>370</v>
+      </c>
+      <c r="H47" s="27">
         <v>60</v>
       </c>
-      <c r="E24" s="9">
-        <f t="shared" ref="E24:E27" si="2">D24*C24</f>
-        <v>6000</v>
-      </c>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="1">
-        <v>370</v>
-      </c>
-      <c r="D25" s="9">
-        <v>60</v>
-      </c>
-      <c r="E25" s="9">
+      <c r="I47" s="28">
         <f t="shared" si="2"/>
         <v>22200</v>
       </c>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="1">
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="26">
         <v>100</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D48" s="27">
         <v>60</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E48" s="28">
+        <f>D48*C48</f>
+        <v>6000</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="26">
+        <v>100</v>
+      </c>
+      <c r="H48" s="27">
+        <v>60</v>
+      </c>
+      <c r="I48" s="28">
         <f t="shared" si="2"/>
         <v>6000</v>
       </c>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="1">
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="26">
         <v>25</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D49" s="27">
         <v>60</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E49" s="28">
+        <f>D49*C49</f>
+        <v>1500</v>
+      </c>
+      <c r="F49" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="26">
+        <v>25</v>
+      </c>
+      <c r="H49" s="27">
+        <v>60</v>
+      </c>
+      <c r="I49" s="28">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10">
-        <f>SUM(E23:E27)</f>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="11">
+        <f>SUM(E45:E49)</f>
         <v>44700</v>
       </c>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12">
-        <f>E16+E21+E28</f>
-        <v>47450</v>
-      </c>
-      <c r="F29" s="6"/>
+      <c r="F50" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="9"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="11">
+        <f>SUM(I45:I49)</f>
+        <v>44700</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="17"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="19">
+        <f>E38+E43+E50</f>
+        <v>47650</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="17"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="19">
+        <f>I38+I43+I50</f>
+        <v>46661.57</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="I41" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Documents/Estimations/Coût.xlsx
+++ b/Documents/Estimations/Coût.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Documents\GitHub\projet-5-credits\Documents\Estimations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9829BE5-01EA-4FDD-AC77-5E8FC17BB7EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FBE4F8-8C3B-492C-B74B-06B2EAF7B539}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{4E4A5E19-7556-4C86-A701-DB9D7891D5F7}"/>
   </bookViews>
@@ -786,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD447D9-64F0-4BF2-AD12-BEA79E168782}">
   <dimension ref="B5:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documents/Estimations/Coût.xlsx
+++ b/Documents/Estimations/Coût.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Documents\GitHub\projet-5-credits\Documents\Estimations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FBE4F8-8C3B-492C-B74B-06B2EAF7B539}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFDAFD3-E2A4-4463-8CA3-A45450565E9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{4E4A5E19-7556-4C86-A701-DB9D7891D5F7}"/>
   </bookViews>

--- a/Documents/Estimations/Coût.xlsx
+++ b/Documents/Estimations/Coût.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Documents\GitHub\projet-5-credits\Documents\Estimations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFDAFD3-E2A4-4463-8CA3-A45450565E9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205B9138-021F-46AF-811E-A9FD72C42181}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{4E4A5E19-7556-4C86-A701-DB9D7891D5F7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E4A5E19-7556-4C86-A701-DB9D7891D5F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
   <si>
     <t xml:space="preserve">Achat de materiel </t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Manette de controle logitech F310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Valise de transport</t>
   </si>
 </sst>
 </file>
@@ -784,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD447D9-64F0-4BF2-AD12-BEA79E168782}">
-  <dimension ref="B5:I51"/>
+  <dimension ref="B5:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1480,102 +1483,93 @@
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="29"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" s="26">
+        <v>1</v>
+      </c>
+      <c r="H37" s="27">
+        <v>430</v>
+      </c>
+      <c r="I37" s="28">
+        <f>G37*H37</f>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="34">
+      <c r="C38" s="32"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="34">
         <f>E31</f>
         <v>200</v>
       </c>
-      <c r="F37" s="31" t="s">
+      <c r="F38" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G37" s="32"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="34">
-        <f>SUM(I32:I36)</f>
-        <v>369.5</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="8" t="s">
+      <c r="G38" s="32"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="34">
+        <f>SUM(I32:I37)</f>
+        <v>799.5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11">
-        <f>SUM(E23,E30,E37)</f>
+      <c r="C39" s="9"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11">
+        <f>SUM(E23,E30,E38)</f>
         <v>2950</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F39" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="9"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="11">
-        <f>SUM(I23,I30,I37)</f>
-        <v>1933.5700000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="12" t="s">
+      <c r="G39" s="9"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="11">
+        <f>SUM(I23,I30,I38)</f>
+        <v>2363.5700000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="14" t="s">
+      <c r="C40" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E40" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F40" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H39" s="14" t="s">
+      <c r="G40" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I39" s="15" t="s">
+      <c r="I40" s="15" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="5">
-        <v>1</v>
-      </c>
-      <c r="D40" s="6">
-        <v>0</v>
-      </c>
-      <c r="E40" s="7">
-        <f>-D40*C40</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G40" s="5">
-        <v>1</v>
-      </c>
-      <c r="H40" s="6">
-        <v>0</v>
-      </c>
-      <c r="I40" s="7">
-        <f>G40*H40</f>
-        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C41" s="5">
         <v>1</v>
@@ -1588,22 +1582,22 @@
         <v>0</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G41" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41" s="6">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I41" s="7">
         <f>G41*H41</f>
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C42" s="5">
         <v>1</v>
@@ -1616,249 +1610,277 @@
         <v>0</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="G42" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" s="6">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I42" s="7">
         <f>G42*H42</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="5">
+        <v>1</v>
+      </c>
+      <c r="D43" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="8" t="s">
+      <c r="E43" s="7">
+        <f>-D43*C43</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="5">
+        <v>1</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <f>G43*H43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11">
+      <c r="C44" s="9"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11">
         <v>0</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F44" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G43" s="9"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="11">
-        <f>SUM(I40:I42)</f>
+      <c r="G44" s="9"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="11">
+        <f>SUM(I41:I43)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="12" t="s">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" s="14" t="s">
+      <c r="C45" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E45" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F45" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H44" s="14" t="s">
+      <c r="G45" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I44" s="15" t="s">
+      <c r="I45" s="15" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="26">
-        <v>150</v>
-      </c>
-      <c r="D45" s="27">
-        <v>60</v>
-      </c>
-      <c r="E45" s="28">
-        <f>D45*C45</f>
-        <v>9000</v>
-      </c>
-      <c r="F45" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" s="26">
-        <v>150</v>
-      </c>
-      <c r="H45" s="27">
-        <v>60</v>
-      </c>
-      <c r="I45" s="28">
-        <f>H45*G45</f>
-        <v>9000</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C46" s="26">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D46" s="27">
         <v>60</v>
       </c>
       <c r="E46" s="28">
         <f>D46*C46</f>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G46" s="26">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H46" s="27">
         <v>60</v>
       </c>
       <c r="I46" s="28">
-        <f t="shared" ref="I46:I49" si="2">H46*G46</f>
-        <v>6000</v>
+        <f>H46*G46</f>
+        <v>9000</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C47" s="26">
-        <v>370</v>
+        <v>100</v>
       </c>
       <c r="D47" s="27">
         <v>60</v>
       </c>
       <c r="E47" s="28">
         <f>D47*C47</f>
-        <v>22200</v>
+        <v>6000</v>
       </c>
       <c r="F47" s="29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G47" s="26">
-        <v>370</v>
+        <v>100</v>
       </c>
       <c r="H47" s="27">
         <v>60</v>
       </c>
       <c r="I47" s="28">
+        <f t="shared" ref="I47:I50" si="2">H47*G47</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="26">
+        <v>370</v>
+      </c>
+      <c r="D48" s="27">
+        <v>60</v>
+      </c>
+      <c r="E48" s="28">
+        <f>D48*C48</f>
+        <v>22200</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="26">
+        <v>370</v>
+      </c>
+      <c r="H48" s="27">
+        <v>60</v>
+      </c>
+      <c r="I48" s="28">
         <f t="shared" si="2"/>
         <v>22200</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="29" t="s">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="26">
+      <c r="C49" s="26">
         <v>100</v>
       </c>
-      <c r="D48" s="27">
+      <c r="D49" s="27">
         <v>60</v>
       </c>
-      <c r="E48" s="28">
-        <f>D48*C48</f>
+      <c r="E49" s="28">
+        <f>D49*C49</f>
         <v>6000</v>
       </c>
-      <c r="F48" s="29" t="s">
+      <c r="F49" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G48" s="26">
+      <c r="G49" s="26">
         <v>100</v>
       </c>
-      <c r="H48" s="27">
+      <c r="H49" s="27">
         <v>60</v>
       </c>
-      <c r="I48" s="28">
+      <c r="I49" s="28">
         <f t="shared" si="2"/>
         <v>6000</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="29" t="s">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="26">
+      <c r="C50" s="26">
         <v>25</v>
       </c>
-      <c r="D49" s="27">
+      <c r="D50" s="27">
         <v>60</v>
       </c>
-      <c r="E49" s="28">
-        <f>D49*C49</f>
+      <c r="E50" s="28">
+        <f>D50*C50</f>
         <v>1500</v>
       </c>
-      <c r="F49" s="29" t="s">
+      <c r="F50" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G49" s="26">
+      <c r="G50" s="26">
         <v>25</v>
       </c>
-      <c r="H49" s="27">
+      <c r="H50" s="27">
         <v>60</v>
       </c>
-      <c r="I49" s="28">
+      <c r="I50" s="28">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="8" t="s">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="11">
-        <f>SUM(E45:E49)</f>
+      <c r="C51" s="9"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11">
+        <f>SUM(E46:E50)</f>
         <v>44700</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F51" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G50" s="9"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="11">
-        <f>SUM(I45:I49)</f>
+      <c r="G51" s="9"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="11">
+        <f>SUM(I46:I50)</f>
         <v>44700</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="16" t="s">
+    <row r="52" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="19">
-        <f>E38+E43+E50</f>
+      <c r="C52" s="17"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="19">
+        <f>E39+E44+E51</f>
         <v>47650</v>
       </c>
-      <c r="F51" s="16" t="s">
+      <c r="F52" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G51" s="17"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="19">
-        <f>I38+I43+I50</f>
-        <v>46661.57</v>
+      <c r="G52" s="17"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="19">
+        <f>I39+I44+I51</f>
+        <v>47091.57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="I41" formula="1"/>
+    <ignoredError sqref="I42" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>